--- a/medicine/Mort/Cimetière_de_Jérusalem_et_de_la_nouvelle_église_(division_IV)/Cimetière_de_Jérusalem_et_de_la_nouvelle_église_(division_IV).xlsx
+++ b/medicine/Mort/Cimetière_de_Jérusalem_et_de_la_nouvelle_église_(division_IV)/Cimetière_de_Jérusalem_et_de_la_nouvelle_église_(division_IV).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_J%C3%A9rusalem_et_de_la_nouvelle_%C3%A9glise_(division_IV)</t>
+          <t>Cimetière_de_Jérusalem_et_de_la_nouvelle_église_(division_IV)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Jérusalem et de la nouvelle église IV est situé sur la Bergmannstraße à Berlin-Kreuzberg. Il est inauguré le 2 juin 1852 et a une superficie de 30 771 m2.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_J%C3%A9rusalem_et_de_la_nouvelle_%C3%A9glise_(division_IV)</t>
+          <t>Cimetière_de_Jérusalem_et_de_la_nouvelle_église_(division_IV)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Luisenstadt forme sa limite à l'est et le cimetière de Friedrichswerder à l'ouest. Avec ceux-ci et le cimetière de la Trinité (division II), il appartient au complexe de cimetières de la Bergmannstraße, qui sont reliés les uns aux autres il y a quelques décennies par des ouvertures. La chapelle néo-romane du cimetière est de Louis Arnd (1846-1906). Il y a aussi un certain nombre de tombes luxueuses dans ce cimetière, avec lesquelles des testateurs aujourd'hui presque oubliés ont voulu se commémorer de manière ostentatoire.
 Les cimetières I, II et III de l'église de Jérusalem et de la nouvelle église appartiennent au complexe cimetières devant la porte de Halle, le cimetière V se trouve sur la Hermannstraße.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_J%C3%A9rusalem_et_de_la_nouvelle_%C3%A9glise_(division_IV)</t>
+          <t>Cimetière_de_Jérusalem_et_de_la_nouvelle_église_(division_IV)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorsque la congrégation de l'église de Jérusalem, qui avec 1 366 places est l'une des plus importantes de Berlin, perd de plus en plus de membres à la suite de la formation de la ville vers 1900, elle est fusionnée avec la congrégation de la Nouvelle Église et n'utilise plus que le bâtiment de cette dernière, à côté de la tour décorative appelée Cathédrale allemande. Le bâtiment de l'église de Jérusalem, devient orphelin, devient la propriété du gouvernement du Reich, qui le vend à l'État roumain en 1943. Il le met à la disposition de l'Église orthodoxe grecque. L'église, dédiée aux saints archanges Michel et Gabriel, a déjà été remodelée lorsqu'un attentat à la bombe frappe la ville le 3 février 1945, le bâtiment est gravement endommagé. Après des années de négociations avec ce qui est désormais la Roumanie communiste, les ruines sont détruites et nettoyées en 1961 au profit de la percée d'Oranienstrasse dans la Kochstraße (de)[1]. À proximité se trouve depuis 1966 la tour Axel Springer, située dans l'Axel-Springer-Straße (de). L'ancien emplacement de l'église est marqué au sol. Comme la nouvelle église sur Gendarmenmarkt à Berlin-Est, qui est endommagée pendant la guerre, n'est pas initialement reconstruite, un nouveau bâtiment est construit dans la Lindenstraße de Kreuzberg en 1968.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque la congrégation de l'église de Jérusalem, qui avec 1 366 places est l'une des plus importantes de Berlin, perd de plus en plus de membres à la suite de la formation de la ville vers 1900, elle est fusionnée avec la congrégation de la Nouvelle Église et n'utilise plus que le bâtiment de cette dernière, à côté de la tour décorative appelée Cathédrale allemande. Le bâtiment de l'église de Jérusalem, devient orphelin, devient la propriété du gouvernement du Reich, qui le vend à l'État roumain en 1943. Il le met à la disposition de l'Église orthodoxe grecque. L'église, dédiée aux saints archanges Michel et Gabriel, a déjà été remodelée lorsqu'un attentat à la bombe frappe la ville le 3 février 1945, le bâtiment est gravement endommagé. Après des années de négociations avec ce qui est désormais la Roumanie communiste, les ruines sont détruites et nettoyées en 1961 au profit de la percée d'Oranienstrasse dans la Kochstraße (de). À proximité se trouve depuis 1966 la tour Axel Springer, située dans l'Axel-Springer-Straße (de). L'ancien emplacement de l'église est marqué au sol. Comme la nouvelle église sur Gendarmenmarkt à Berlin-Est, qui est endommagée pendant la guerre, n'est pas initialement reconstruite, un nouveau bâtiment est construit dans la Lindenstraße de Kreuzberg en 1968.
 En raison de la construction du mur de Berlin en 1961, de nombreux paroissiens vivant à Berlin-Est ne peuvent plus visiter les cimetières mentionnés ici.
-Au total, 123 victimes de la guerre et de la tyrannie reposent dans ce cimetière sur un cimetière de guerre fermé[2].
+Au total, 123 victimes de la guerre et de la tyrannie reposent dans ce cimetière sur un cimetière de guerre fermé.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_J%C3%A9rusalem_et_de_la_nouvelle_%C3%A9glise_(division_IV)</t>
+          <t>Cimetière_de_Jérusalem_et_de_la_nouvelle_église_(division_IV)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Tombes de personnalités connues</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(*) = sépulture honorifique de l'état de Berlin
 Carl Aschinger, restaurateur berlinois, fondateur de Aschinger (de) AG
